--- a/___VALEO/doc/Input-and-Output.xlsx
+++ b/___VALEO/doc/Input-and-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EXED\Training\___VALEO\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BB878-7E01-4EF3-98CB-80EFDB250F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824FC272-3EBE-4977-A960-DF08B55856C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="7005" activeTab="1" xr2:uid="{E9589B57-5044-414F-9FBB-18693645CA3C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="74">
   <si>
     <t>PROC TRACEINFO,</t>
   </si>
@@ -170,13 +170,97 @@
   </si>
   <si>
     <t>V2 Valeur de couple,</t>
+  </si>
+  <si>
+    <t>Binar OP130_Resultat_Global_v      1.000000</t>
+  </si>
+  <si>
+    <t>OP100_Capuchon_insertion_mesure    0.032212</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingFinalStroke_value    0.015148</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingMidPointForce_val    0.014273</t>
+  </si>
+  <si>
+    <t>OP090_StartLinePeakForce_value     0.010720</t>
+  </si>
+  <si>
+    <t>OP110_Vissage_M8_angle_value       0.005470</t>
+  </si>
+  <si>
+    <t>OP120_Rodage_I_mesure_value        0.003763</t>
+  </si>
+  <si>
+    <t>OP110_Vissage_M8_torque_value     -0.002984</t>
+  </si>
+  <si>
+    <t>OP070_V_2_angle_value             -0.006342</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingPeakForce_value     -0.007290</t>
+  </si>
+  <si>
+    <t>OP120_Rodage_U_mesure_value       -0.010492</t>
+  </si>
+  <si>
+    <t>OP070_V_1_angle_value             -0.012793</t>
+  </si>
+  <si>
+    <t>OP070_V_1_torque_value            -0.037438</t>
+  </si>
+  <si>
+    <t>OP070_V_2_torque_value            -0.039752</t>
+  </si>
+  <si>
+    <t>OP100_Capuchon_insertion_mesure    0.040366</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingFinalStroke_value       0.015148</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingMidPointForce_val      0.014273</t>
+  </si>
+  <si>
+    <t>OP110_Vissage_M8_angle_value            0.005470</t>
+  </si>
+  <si>
+    <t>OP090_StartLinePeakForce_value          0.010720</t>
+  </si>
+  <si>
+    <t>OP120_Rodage_I_mesure_value             0.003763</t>
+  </si>
+  <si>
+    <t>OP110_Vissage_M8_torque_value         -0.002984</t>
+  </si>
+  <si>
+    <t>OP070_V_2_angle_value                            -0.006342</t>
+  </si>
+  <si>
+    <t>OP090_SnapRingPeakForce_value         -0.007290</t>
+  </si>
+  <si>
+    <t>OP120_Rodage_U_mesure_value          -0.010492</t>
+  </si>
+  <si>
+    <t>OP070_V_1_angle_value                            -0.012793</t>
+  </si>
+  <si>
+    <t>OP070_V_1_torque_value                         -0.037438</t>
+  </si>
+  <si>
+    <t>OP070_V_2_torque_value                         -0.039752</t>
+  </si>
+  <si>
+    <t>Mesure d'insertion capuchon    / Missing Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +276,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -231,12 +327,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,19 +830,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CAE82-9FDB-4BF1-81F7-2B5538B35291}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -748,8 +853,12 @@
       <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -759,8 +868,11 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -770,8 +882,11 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -781,8 +896,11 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -792,8 +910,11 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -803,8 +924,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -814,8 +938,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -825,8 +952,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -836,8 +966,11 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -847,8 +980,11 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +994,11 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -869,8 +1008,11 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -880,8 +1022,11 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -891,155 +1036,201 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
-        <v>17</v>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
